--- a/7 Pricing/Cost price.xlsx
+++ b/7 Pricing/Cost price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenvanopstal/Desktop/Electric-Scooter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenvanopstal/Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73476D20-382C-184D-B84E-30DAE96D84CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2E5FF-6382-614E-B1C3-48B45BADDEDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Motor</t>
   </si>
@@ -124,9 +129,6 @@
   </si>
   <si>
     <t>Fuse holder for maxiOTO fuses</t>
-  </si>
-  <si>
-    <t>Waterproof ABS box - Dark grey - 222 x 146 x 75mm G353</t>
   </si>
   <si>
     <t>Cable shoes</t>
@@ -182,9 +184,6 @@
     <t>Wheels /w rims</t>
   </si>
   <si>
-    <t>3/8“ x 7/32“ DIN ISO 606</t>
-  </si>
-  <si>
     <t>12 tooth - 3/8“ x 7/32“ DIN ISO 606</t>
   </si>
   <si>
@@ -192,6 +191,24 @@
   </si>
   <si>
     <t>8“ - 200 x 50mm - Scoot wheels - Aluminium rims</t>
+  </si>
+  <si>
+    <t>Connecting link</t>
+  </si>
+  <si>
+    <t>3/8“ x 7/32“ DIN 8187</t>
+  </si>
+  <si>
+    <t>3/8“ x 7/32“ DIN ISO 606 - 1m</t>
+  </si>
+  <si>
+    <t>Waterproof ABS box - Dark grey - 195 x 80 x 55mm G353</t>
+  </si>
+  <si>
+    <t>Battery charger</t>
+  </si>
+  <si>
+    <t>IMAX B6AC V2 Professional Balance Charger/Discharger</t>
   </si>
 </sst>
 </file>
@@ -406,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -495,6 +512,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -775,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,7 +877,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -871,7 +889,7 @@
         <v>19.95</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" ref="E7:E26" si="0">C7*D7</f>
+        <f t="shared" ref="E7:E28" si="0">C7*D7</f>
         <v>39.9</v>
       </c>
     </row>
@@ -931,7 +949,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -949,7 +967,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
@@ -966,60 +984,60 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>38.19</v>
+      </c>
+      <c r="E13" s="12">
+        <f>C13*D13</f>
+        <v>38.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>44</v>
@@ -1031,101 +1049,109 @@
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="12">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
         <f>C18*D18</f>
-        <v>24.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="12">
-        <v>20.49</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
         <f>C19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>12.25</v>
+      </c>
+      <c r="E20" s="12">
+        <f>C20*D20</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>20.49</v>
+      </c>
+      <c r="E21" s="12">
+        <f>C21*D21</f>
         <v>40.98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <f>C24*D24</f>
         <v>0</v>
       </c>
     </row>
@@ -1153,165 +1179,193 @@
         <v>0</v>
       </c>
       <c r="E26" s="12">
+        <f>C26*D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>24.43</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" ref="E31" si="2">C31*D31</f>
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
-        <v>24.43</v>
-      </c>
-      <c r="E29" s="13">
-        <f t="shared" ref="E29" si="2">C29*D29</f>
-        <v>24.43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C32" s="30">
+        <v>1</v>
+      </c>
+      <c r="D32" s="32">
+        <v>2.75</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" ref="E32:E36" si="3">C32*D32</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="32">
-        <v>2.75</v>
-      </c>
-      <c r="E30" s="32">
-        <f t="shared" ref="E30:E34" si="3">C30*D30</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="33">
+      <c r="C33" s="31">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33">
         <v>2.59</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E33" s="33">
         <f t="shared" si="3"/>
         <v>2.59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="31">
-        <v>1</v>
-      </c>
-      <c r="D32" s="33">
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="33">
         <v>11.39</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E34" s="33">
         <f t="shared" si="3"/>
         <v>11.39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="31">
-        <v>1</v>
-      </c>
-      <c r="D33" s="33">
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33">
         <v>8.41</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E35" s="33">
         <f t="shared" si="3"/>
         <v>8.41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
         <v>10.38</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E36" s="13">
         <f t="shared" si="3"/>
         <v>10.38</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="E37" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="37">
+      <c r="B39" s="37">
         <f>SUM(E:E)</f>
-        <v>461.08000000000004</v>
+        <v>487.02000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/7 Pricing/Cost price.xlsx
+++ b/7 Pricing/Cost price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenvanopstal/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenvanopstal/Documents/GitHub/Electric-Scooter/7 Pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2E5FF-6382-614E-B1C3-48B45BADDEDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8653F-0C20-204A-B847-D0DBEDAE019F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -796,7 +791,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,11 +1023,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="13">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,11 +1041,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="12">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,11 +1059,11 @@
         <v>5</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
+        <v>14.43</v>
       </c>
       <c r="E18" s="12">
         <f>C18*D18</f>
-        <v>0</v>
+        <v>72.150000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,11 +1077,11 @@
         <v>5</v>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E19" s="12">
         <f>C19*D19</f>
-        <v>0</v>
+        <v>11.399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1365,7 +1360,7 @@
       </c>
       <c r="B39" s="37">
         <f>SUM(E:E)</f>
-        <v>487.02000000000004</v>
+        <v>589.63</v>
       </c>
     </row>
   </sheetData>
